--- a/graph2_Vietnam.xlsx
+++ b/graph2_Vietnam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58CDC3F-FCEE-4FEB-9730-1E09748CA2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E58CDC3F-FCEE-4FEB-9730-1E09748CA2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22ED1CF9-DF61-49B8-AB28-59345BD8E3FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F025CEE0-448C-41C1-B75C-43B618FFB287}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" xr2:uid="{F025CEE0-448C-41C1-B75C-43B618FFB287}"/>
   </bookViews>
   <sheets>
     <sheet name="United States" sheetId="1" r:id="rId1"/>
@@ -41,61 +41,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
-    <t>All domestic</t>
-  </si>
-  <si>
-    <t>Imported Wafer</t>
-  </si>
-  <si>
-    <t>Imported Cell</t>
-  </si>
-  <si>
-    <t>Polysilicon</t>
-  </si>
-  <si>
-    <t>Wafer</t>
-  </si>
-  <si>
-    <t>Cell Cost</t>
-  </si>
-  <si>
-    <t>Overheads</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Building and facilities</t>
-  </si>
-  <si>
-    <t>Equipment depreciation</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Labour</t>
-  </si>
-  <si>
-    <t>Other material</t>
-  </si>
-  <si>
-    <t>ESG Certification</t>
-  </si>
-  <si>
-    <t>Operating profits</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">**2025 PV Production Costs in United States across different scenarios**
@@ -104,9 +55,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -114,105 +64,64 @@
 1) domestic manufacturing,
 2) imported wafers from Vietnam,
 3) imported cell from Vietnam.
-The panel assembly is done domestically. The following assumptions apply: 
-**- </t>
+The panel assembly is done domestically. The production capacity considered is 4 GW for wafer, cell and panel assembly.</t>
     </r>
+  </si>
+  <si>
+    <t>All domestic</t>
+  </si>
+  <si>
+    <t>Imported Wafer</t>
+  </si>
+  <si>
+    <t>Imported Cell</t>
+  </si>
+  <si>
+    <t>Polysilicon</t>
+  </si>
+  <si>
+    <t>Wafer</t>
+  </si>
+  <si>
+    <t>Cell Cost</t>
+  </si>
+  <si>
+    <t>Overheads</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Building and facilities</t>
+  </si>
+  <si>
+    <t>Equipment depreciation</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Other material</t>
+  </si>
+  <si>
+    <t>ESG Certification</t>
+  </si>
+  <si>
+    <t>Operating profits</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Technology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** TopCon 
-**- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Production capacity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** 4 GW for wafer, cell and panel assembly 
-**-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wafers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** produced domestically or imported from Vietnam
-**-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** produced domestically or imported from Vietnam</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">**2025 PV Production Costs in Australia across different scenarios**
@@ -221,9 +130,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -231,105 +139,16 @@
 1) domestic manufacturing,
 2) imported wafers from Vietnam,
 3) imported cell from Vietnam. 
-The panel assembly is done domestically. The following assumptions apply:
-**- </t>
+The panel assembly is done domestically. The production capacity considered is 4 GW for wafer, cell and panel assembly.</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Technology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** TopCon 
-**- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Production capacity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** 4 GW for wafer, cell and panel assembly 
-**-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wafers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** produced domestically or imported from Vietnam
-**-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** produced domestically or imported from Vietnam</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">**2025 PV Production Costs in Germany across different scenarios**
@@ -338,9 +157,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -348,105 +166,16 @@
 1) domestic manufacturing,
 2) imported wafers from Vietnam,
 3) imported cell from Vietnam.
-The panel assembly is done domestically. The following assumptions apply:
-**- </t>
+The panel assembly is done domestically. The production capacity considered is 4 GW for wafer, cell and panel assembly.</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Technology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** TopCon
-**- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Production capacity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** 4 GW for wafer, cell and panel assembly 
-**-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wafers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** produced domestically or imported from Vietnam
-**-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** produced domestically or imported from Vietnam</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">**2025 PV Production Costs in India across different scenarios**
@@ -455,9 +184,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -465,95 +193,7 @@
 1) domestic manufacturing,
 2) imported wafers from Vietnam,
 3) imported cell from Vietnam.
- The panel assembly is done domestically. The following assumptions apply: 
-**- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Technology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** TopCon
-**- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Production capacity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** 4 GW for wafer, cell and panel assembly
-**-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Wafers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** produced domestically or imported from Vietnam
-**-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:** produced domestically or imported from Vietnam</t>
+ The panel assembly is done domestically. The production capacity considered is 4 GW for wafer, cell and panel assembly.</t>
     </r>
   </si>
 </sst>
@@ -565,7 +205,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +219,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -604,12 +257,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,9 +599,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0E34E8-9446-4E89-BDF7-107567D4B5FD}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -956,27 +611,27 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="360" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="201.75">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>3.1353920850000001E-2</v>
       </c>
       <c r="C3">
@@ -986,173 +641,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>5.588638112946577E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.10406733983214497</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>6.5972202733480811E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>6.5972202733480811E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.18177777416305702</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
         <v>8.9492310000000002E-3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>8.9492310000000002E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8.9492310000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
         <v>1.75E-3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1.75E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1.75E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
         <v>1.8216E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1.8216E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>1.8216E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
         <v>1.2969899999999999E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1.2969899999999999E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>1.2969899999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
         <f>SUM(B3:B14)</f>
         <v>0.26159763571294664</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" ref="C15:D15" si="0">SUM(C3:C14)</f>
         <v>0.27842467356562584</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>0.29016290516305704</v>
       </c>
@@ -1166,9 +821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75128492-BD83-4465-8DFB-E5058749FE15}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1176,27 +831,27 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="188.25">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>3.1006450649999996E-2</v>
       </c>
       <c r="C3">
@@ -1206,173 +861,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>5.505790583904191E-2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>5.2072146464646467E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>6.39691097334808E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>6.39691097334808E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>9.0913613630102488E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
         <v>8.7807330000000006E-3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>8.7807330000000006E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8.7807330000000006E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
         <v>1.7687999999999999E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1.7687999999999999E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>1.7687999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
         <v>1.27257E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1.27257E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>1.27257E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
         <f>SUM(B3:B14)</f>
         <v>0.25637789922252274</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f>SUM(C3:C14)</f>
         <v>0.22238568919812729</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f>SUM(D3:D14)</f>
         <v>0.19725804663010252</v>
       </c>
@@ -1388,7 +1043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1396,27 +1051,27 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="345" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="188.25">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>4.0372351949999996E-2</v>
       </c>
       <c r="C3">
@@ -1426,173 +1081,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>6.5019114910684558E-2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>5.2245989676173499E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>6.9747744733480804E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>6.9747744733480804E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>9.1087456841629527E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
         <v>8.9589600000000002E-3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>8.9589600000000002E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1.5E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
         <v>1.7159999999999998E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1.7159999999999998E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>1.7159999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
         <v>1.2983999999999999E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1.2983999999999999E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>1.2983999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
         <f>SUM(B3:B14)</f>
         <v>0.28364217159416538</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f>SUM(C3:C14)</f>
         <v>0.23049669440965431</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f>SUM(D3:D14)</f>
         <v>0.19959041684162954</v>
       </c>
@@ -1608,7 +1263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="63.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1616,27 +1271,27 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="315" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="188.25">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>2.6588051174999999E-2</v>
       </c>
       <c r="C3">
@@ -1646,179 +1301,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>3.7037072672387136E-2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>5.2026654783125369E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>4.2913443483480793E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>4.2913443483480793E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>9.086812194858139E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
         <v>6.996496500000002E-3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>6.996496500000002E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>6.996496500000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>2.3750000000000004E-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.3750000000000004E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
         <v>1.48E-3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1.48E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
         <v>2.2439999999999999E-3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2.2439999999999999E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>2.2439999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
         <v>1.0139850000000001E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1.0139850000000001E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>1.0139850000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
         <f>SUM(B3:B14)</f>
         <v>0.19127391383086795</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f>SUM(C3:C14)</f>
         <v>0.17967544476660618</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f>SUM(D3:D14)</f>
         <v>0.17560346844858141</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1826,6 +1481,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033005BA1203B7F46A77A330CF32A946D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee0c272a4f4272e6ff07dee5e58e90f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7f5957c-7da5-4c27-85eb-7459e8edadbc" xmlns:ns3="ba5b49d0-d563-40a1-b879-461d939a825e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f25b1570ae68bdd22d432fabd6d0aa94" ns2:_="" ns3:_="">
     <xsd:import namespace="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
@@ -2060,7 +1724,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
@@ -2071,49 +1735,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF080E-9BCF-43D5-AADE-551C268AED58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
-    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056DD579-DDC8-4AD9-A645-3C0A1F025334}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83CFFA05-A471-464F-9F5D-DA23C2D20DCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
-    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF080E-9BCF-43D5-AADE-551C268AED58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056DD579-DDC8-4AD9-A645-3C0A1F025334}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83CFFA05-A471-464F-9F5D-DA23C2D20DCD}"/>
 </file>
--- a/graph2_Vietnam.xlsx
+++ b/graph2_Vietnam.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E58CDC3F-FCEE-4FEB-9730-1E09748CA2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22ED1CF9-DF61-49B8-AB28-59345BD8E3FF}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{E58CDC3F-FCEE-4FEB-9730-1E09748CA2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1605D9EF-B59B-4E49-97BF-6A0FCE97AB99}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" xr2:uid="{F025CEE0-448C-41C1-B75C-43B618FFB287}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F025CEE0-448C-41C1-B75C-43B618FFB287}"/>
   </bookViews>
   <sheets>
-    <sheet name="United States" sheetId="1" r:id="rId1"/>
-    <sheet name="Australia" sheetId="2" r:id="rId2"/>
-    <sheet name="Germany" sheetId="3" r:id="rId3"/>
-    <sheet name="India" sheetId="4" r:id="rId4"/>
+    <sheet name="Australia" sheetId="2" r:id="rId1"/>
+    <sheet name="Germany" sheetId="3" r:id="rId2"/>
+    <sheet name="India" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,82 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">**2025 PV Production Costs in United States across different scenarios**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-This scenario illustrates the cost of final PV modules across 3 different scenarios :
-1) domestic manufacturing,
-2) imported wafers from Vietnam,
-3) imported cell from Vietnam.
-The panel assembly is done domestically. The production capacity considered is 4 GW for wafer, cell and panel assembly.</t>
-    </r>
-  </si>
-  <si>
-    <t>All domestic</t>
-  </si>
-  <si>
-    <t>Imported Wafer</t>
-  </si>
-  <si>
-    <t>Imported Cell</t>
-  </si>
-  <si>
-    <t>Polysilicon</t>
-  </si>
-  <si>
-    <t>Wafer</t>
-  </si>
-  <si>
-    <t>Cell Cost</t>
-  </si>
-  <si>
-    <t>Overheads</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Building and facilities</t>
-  </si>
-  <si>
-    <t>Equipment depreciation</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Labour</t>
-  </si>
-  <si>
-    <t>Other material</t>
-  </si>
-  <si>
-    <t>ESG Certification</t>
-  </si>
-  <si>
-    <t>Operating profits</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -141,6 +65,54 @@
 3) imported cell from Vietnam. 
 The panel assembly is done domestically. The production capacity considered is 4 GW for wafer, cell and panel assembly.</t>
     </r>
+  </si>
+  <si>
+    <t>All domestic</t>
+  </si>
+  <si>
+    <t>Imported Wafer</t>
+  </si>
+  <si>
+    <t>Imported Cell</t>
+  </si>
+  <si>
+    <t>Polysilicon</t>
+  </si>
+  <si>
+    <t>Wafer (excl. polysilicon)</t>
+  </si>
+  <si>
+    <t>Cell Cost (excl. wafer)</t>
+  </si>
+  <si>
+    <t>Other material (e.g. front and back glass, encapsulant and others)</t>
+  </si>
+  <si>
+    <t>Overheads</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Building and facilities</t>
+  </si>
+  <si>
+    <t>Equipment depreciation</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>ESG Certification</t>
+  </si>
+  <si>
+    <t>Operating profits</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <r>
@@ -596,232 +568,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0E34E8-9446-4E89-BDF7-107567D4B5FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75128492-BD83-4465-8DFB-E5058749FE15}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="201.75">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3.1353920850000001E-2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5.588638112946577E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.10406733983214497</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6.5972202733480811E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6.5972202733480811E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.18177777416305702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8.9492310000000002E-3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8.9492310000000002E-3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8.9492310000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.7000000000000001E-3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.7000000000000001E-3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.75E-3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.75E-3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.75E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.8216E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.8216E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.8216E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.2969899999999999E-2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.2969899999999999E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.2969899999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <f>SUM(B3:B14)</f>
-        <v>0.26159763571294664</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" ref="C15:D15" si="0">SUM(C3:C14)</f>
-        <v>0.27842467356562584</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.29016290516305704</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75128492-BD83-4465-8DFB-E5058749FE15}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -833,7 +585,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="188.25">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -890,17 +642,17 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>8.7807330000000006E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>8.7807330000000006E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>8.7807330000000006E-3</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -908,13 +660,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>2.2499999999999998E-3</v>
+        <v>8.7807330000000006E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>2.2499999999999998E-3</v>
+        <v>8.7807330000000006E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>2.2499999999999998E-3</v>
+        <v>8.7807330000000006E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -922,13 +674,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>1.5E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.5E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>1.5E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -936,13 +688,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -950,13 +702,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -964,13 +716,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -978,13 +730,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1025,11 +777,11 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C3:C14)</f>
-        <v>0.22238568919812729</v>
+        <v>0.22238568919812732</v>
       </c>
       <c r="D15" s="2">
         <f>SUM(D3:D14)</f>
-        <v>0.19725804663010252</v>
+        <v>0.19725804663010255</v>
       </c>
     </row>
   </sheetData>
@@ -1037,11 +789,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C150A53-9A35-42DB-952D-4C82D92FCBF4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1053,7 +807,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="188.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1110,17 +864,17 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>8.9589600000000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>8.9589600000000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>8.9589600000000002E-3</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1128,13 +882,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>8.9589600000000002E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>8.9589600000000002E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>8.9589600000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1142,13 +896,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>1.5E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1156,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1170,13 +924,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1184,13 +938,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1198,13 +952,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1241,7 +995,7 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B3:B14)</f>
-        <v>0.28364217159416538</v>
+        <v>0.28364217159416533</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C3:C14)</f>
@@ -1257,11 +1011,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AB31F1-DF9C-4108-91ED-DEC91E1E3B70}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1273,7 +1029,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="188.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1330,17 +1086,17 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1348,13 +1104,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1362,13 +1118,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1376,13 +1132,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1390,13 +1146,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1404,13 +1160,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1418,13 +1174,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1465,7 +1221,7 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C3:C14)</f>
-        <v>0.17967544476660618</v>
+        <v>0.17967544476660616</v>
       </c>
       <c r="D15" s="2">
         <f>SUM(D3:D14)</f>
@@ -1490,6 +1246,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033005BA1203B7F46A77A330CF32A946D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee0c272a4f4272e6ff07dee5e58e90f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7f5957c-7da5-4c27-85eb-7459e8edadbc" xmlns:ns3="ba5b49d0-d563-40a1-b879-461d939a825e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f25b1570ae68bdd22d432fabd6d0aa94" ns2:_="" ns3:_="">
     <xsd:import namespace="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
@@ -1724,25 +1491,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056DD579-DDC8-4AD9-A645-3C0A1F025334}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF080E-9BCF-43D5-AADE-551C268AED58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83CFFA05-A471-464F-9F5D-DA23C2D20DCD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83CFFA05-A471-464F-9F5D-DA23C2D20DCD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF080E-9BCF-43D5-AADE-551C268AED58}"/>
 </file>
--- a/graph2_Vietnam.xlsx
+++ b/graph2_Vietnam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{E58CDC3F-FCEE-4FEB-9730-1E09748CA2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1605D9EF-B59B-4E49-97BF-6A0FCE97AB99}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAAEB1-27C6-4FA0-903C-CEB87E446D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F025CEE0-448C-41C1-B75C-43B618FFB287}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F025CEE0-448C-41C1-B75C-43B618FFB287}"/>
   </bookViews>
   <sheets>
     <sheet name="Australia" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -112,9 +112,6 @@
     <t>Operating profits</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -177,16 +174,8 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -227,12 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -569,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75128492-BD83-4465-8DFB-E5058749FE15}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -583,12 +571,12 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="188.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -599,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -613,21 +601,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>5.505790583904191E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5.2072146464646467E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -641,7 +629,7 @@
         <v>9.0913613630102488E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -655,7 +643,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -669,7 +657,7 @@
         <v>8.7807330000000006E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -683,7 +671,7 @@
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -697,7 +685,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -711,7 +699,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -725,7 +713,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -739,7 +727,7 @@
         <v>1.7687999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -753,7 +741,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -765,23 +753,6 @@
       </c>
       <c r="D14" s="1">
         <v>1.27257E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <f>SUM(B3:B14)</f>
-        <v>0.25637789922252274</v>
-      </c>
-      <c r="C15" s="2">
-        <f>SUM(C3:C14)</f>
-        <v>0.22238568919812732</v>
-      </c>
-      <c r="D15" s="2">
-        <f>SUM(D3:D14)</f>
-        <v>0.19725804663010255</v>
       </c>
     </row>
   </sheetData>
@@ -791,13 +762,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C150A53-9A35-42DB-952D-4C82D92FCBF4}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -805,12 +776,12 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="188.25">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -821,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -835,21 +806,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>6.5019114910684558E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5.2245989676173499E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -863,7 +834,7 @@
         <v>9.1087456841629527E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,7 +848,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -891,7 +862,7 @@
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -905,7 +876,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -919,7 +890,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -933,7 +904,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -947,7 +918,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -961,7 +932,7 @@
         <v>1.7159999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -975,7 +946,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -987,23 +958,6 @@
       </c>
       <c r="D14" s="1">
         <v>1.2983999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <f>SUM(B3:B14)</f>
-        <v>0.28364217159416533</v>
-      </c>
-      <c r="C15" s="2">
-        <f>SUM(C3:C14)</f>
-        <v>0.23049669440965431</v>
-      </c>
-      <c r="D15" s="2">
-        <f>SUM(D3:D14)</f>
-        <v>0.19959041684162954</v>
       </c>
     </row>
   </sheetData>
@@ -1013,13 +967,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AB31F1-DF9C-4108-91ED-DEC91E1E3B70}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1027,12 +981,12 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="188.25">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1057,21 +1011,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>3.7037072672387136E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5.2026654783125369E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1039,7 @@
         <v>9.086812194858139E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1053,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1067,7 @@
         <v>6.996496500000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1127,7 +1081,7 @@
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1095,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1109,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1123,7 @@
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1183,7 +1137,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +1151,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1210,26 +1164,6 @@
       <c r="D14" s="1">
         <v>1.0139850000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <f>SUM(B3:B14)</f>
-        <v>0.19127391383086795</v>
-      </c>
-      <c r="C15" s="2">
-        <f>SUM(C3:C14)</f>
-        <v>0.17967544476660616</v>
-      </c>
-      <c r="D15" s="2">
-        <f>SUM(D3:D14)</f>
-        <v>0.17560346844858141</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1237,26 +1171,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033005BA1203B7F46A77A330CF32A946D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee0c272a4f4272e6ff07dee5e58e90f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7f5957c-7da5-4c27-85eb-7459e8edadbc" xmlns:ns3="ba5b49d0-d563-40a1-b879-461d939a825e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f25b1570ae68bdd22d432fabd6d0aa94" ns2:_="" ns3:_="">
     <xsd:import namespace="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
@@ -1491,14 +1405,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056DD579-DDC8-4AD9-A645-3C0A1F025334}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF080E-9BCF-43D5-AADE-551C268AED58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
+    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83CFFA05-A471-464F-9F5D-DA23C2D20DCD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83CFFA05-A471-464F-9F5D-DA23C2D20DCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
+    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CF080E-9BCF-43D5-AADE-551C268AED58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056DD579-DDC8-4AD9-A645-3C0A1F025334}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/graph2_Vietnam.xlsx
+++ b/graph2_Vietnam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAAEB1-27C6-4FA0-903C-CEB87E446D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F176160D-DF39-45C1-9342-F98C1F18EE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F025CEE0-448C-41C1-B75C-43B618FFB287}"/>
   </bookViews>
@@ -559,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75128492-BD83-4465-8DFB-E5058749FE15}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
